--- a/logs/2024/Switch Bitch - Roald Dahl.xlsx
+++ b/logs/2024/Switch Bitch - Roald Dahl.xlsx
@@ -430,7 +430,7 @@
         <v>45650</v>
       </c>
       <c r="B1" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45651</v>
       </c>
       <c r="B2" t="n">
-        <v>171</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45652</v>
       </c>
       <c r="B3" t="n">
-        <v>314</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
